--- a/data/NEWLY updated Timetable_Input_Template.xlsx
+++ b/data/NEWLY updated Timetable_Input_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamil\Downloads\SEPT 12\PAU_Timetable_Scheduler\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamil\Downloads\PAU_Timetable_Scheduler\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4842591-4188-4B67-B57E-77E94BEE892B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E67F9BD-28A4-4CD3-B425-E32C11DD8EDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6804" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classrooms" sheetId="5" r:id="rId1"/>
@@ -3551,8 +3551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3587,7 +3587,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -3601,7 +3601,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -3643,7 +3643,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -3657,7 +3657,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -3671,7 +3671,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -3685,7 +3685,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -3713,7 +3713,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -3727,7 +3727,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -3741,7 +3741,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -3755,7 +3755,7 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -3783,7 +3783,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -3797,7 +3797,7 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -3811,7 +3811,7 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -3839,7 +3839,7 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -3853,7 +3853,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -3881,7 +3881,7 @@
         <v>29</v>
       </c>
       <c r="C23">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -3895,7 +3895,7 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -3909,7 +3909,7 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
@@ -3923,7 +3923,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
         <v>34</v>
@@ -3937,7 +3937,7 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
         <v>36</v>
@@ -3951,7 +3951,7 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -3965,7 +3965,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -3979,7 +3979,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -3993,7 +3993,7 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
         <v>41</v>
@@ -4007,7 +4007,7 @@
         <v>29</v>
       </c>
       <c r="C32">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
         <v>43</v>
@@ -4021,7 +4021,7 @@
         <v>29</v>
       </c>
       <c r="C33">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
@@ -4035,7 +4035,7 @@
         <v>29</v>
       </c>
       <c r="C34">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
@@ -4049,7 +4049,7 @@
         <v>29</v>
       </c>
       <c r="C35">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
@@ -4063,7 +4063,7 @@
         <v>29</v>
       </c>
       <c r="C36">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
@@ -4091,7 +4091,7 @@
         <v>29</v>
       </c>
       <c r="C38">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
@@ -7351,7 +7351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F276" sqref="F276"/>
     </sheetView>
   </sheetViews>

--- a/data/NEWLY updated Timetable_Input_Template.xlsx
+++ b/data/NEWLY updated Timetable_Input_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamil\Downloads\PAU_Timetable_Scheduler\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E67F9BD-28A4-4CD3-B425-E32C11DD8EDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B1C671-1AA8-4850-8A6F-B8E91BFFAAB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6804" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classrooms" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="1024">
   <si>
     <t>Room Name</t>
   </si>
@@ -2017,9 +2017,6 @@
     <t>Data Structures</t>
   </si>
   <si>
-    <t>sadubi@pau.edu.ng &amp; mbello@pau.edu.ng</t>
-  </si>
-  <si>
     <t>CSC 308</t>
   </si>
   <si>
@@ -3086,13 +3083,31 @@
   </si>
   <si>
     <t>Tue, Wed, Thu, Fri</t>
+  </si>
+  <si>
+    <t>sadubi@pau.edu.ng, mbello@pau.edu.ng</t>
+  </si>
+  <si>
+    <t>Miss Joy Emeasoba</t>
+  </si>
+  <si>
+    <t>jemeasoba@pau.edu.ng</t>
+  </si>
+  <si>
+    <t>Mr Uche Gbuna</t>
+  </si>
+  <si>
+    <t>uchegbuna@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3139,6 +3154,14 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3212,10 +3235,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3247,8 +3271,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3551,7 +3581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -5019,10 +5049,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView topLeftCell="A83" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5071,10 +5101,10 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5088,10 +5118,10 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5105,10 +5135,10 @@
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5122,10 +5152,10 @@
         <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5139,10 +5169,10 @@
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5156,10 +5186,10 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5173,10 +5203,10 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F8" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5190,10 +5220,10 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F9" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5207,10 +5237,10 @@
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F10" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5224,10 +5254,10 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F11" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5241,10 +5271,10 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F12" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5258,10 +5288,10 @@
         <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F13" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5275,10 +5305,10 @@
         <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F14" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5292,10 +5322,10 @@
         <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F15" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5309,10 +5339,10 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F16" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5326,10 +5356,10 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F17" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5343,10 +5373,10 @@
         <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F18" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5360,10 +5390,10 @@
         <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F19" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5377,10 +5407,10 @@
         <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F20" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5394,10 +5424,10 @@
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F21" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5411,10 +5441,10 @@
         <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F22" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5428,10 +5458,10 @@
         <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F23" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5445,10 +5475,10 @@
         <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F24" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5462,10 +5492,10 @@
         <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F25" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5479,10 +5509,10 @@
         <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F26" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5496,10 +5526,10 @@
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F27" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5513,10 +5543,10 @@
         <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F28" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5530,10 +5560,10 @@
         <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F29" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5547,10 +5577,10 @@
         <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F30" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5564,10 +5594,10 @@
         <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F31" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5581,10 +5611,10 @@
         <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F32" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5598,10 +5628,10 @@
         <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F33" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5615,10 +5645,10 @@
         <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F34" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5632,10 +5662,10 @@
         <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F35" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5649,10 +5679,10 @@
         <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F36" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5666,10 +5696,10 @@
         <v>58</v>
       </c>
       <c r="E37" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F37" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5683,10 +5713,10 @@
         <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F38" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5700,10 +5730,10 @@
         <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F39" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5717,10 +5747,10 @@
         <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F40" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5734,10 +5764,10 @@
         <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F41" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5751,10 +5781,10 @@
         <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F42" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5768,10 +5798,10 @@
         <v>58</v>
       </c>
       <c r="E43" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F43" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5785,10 +5815,10 @@
         <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F44" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5802,10 +5832,10 @@
         <v>58</v>
       </c>
       <c r="E45" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F45" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5819,10 +5849,10 @@
         <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F46" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5836,10 +5866,10 @@
         <v>58</v>
       </c>
       <c r="E47" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F47" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5853,10 +5883,10 @@
         <v>58</v>
       </c>
       <c r="E48" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F48" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5870,10 +5900,10 @@
         <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F49" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5887,10 +5917,10 @@
         <v>58</v>
       </c>
       <c r="E50" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F50" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5904,10 +5934,10 @@
         <v>58</v>
       </c>
       <c r="E51" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F51" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5921,10 +5951,10 @@
         <v>58</v>
       </c>
       <c r="E52" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F52" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5938,10 +5968,10 @@
         <v>58</v>
       </c>
       <c r="E53" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F53" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5955,10 +5985,10 @@
         <v>58</v>
       </c>
       <c r="E54" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F54" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5972,10 +6002,10 @@
         <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F55" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5989,10 +6019,10 @@
         <v>58</v>
       </c>
       <c r="E56" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F56" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6006,10 +6036,10 @@
         <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F57" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6023,10 +6053,10 @@
         <v>58</v>
       </c>
       <c r="E58" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F58" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6040,10 +6070,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F59" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6057,10 +6087,10 @@
         <v>58</v>
       </c>
       <c r="E60" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F60" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6074,10 +6104,10 @@
         <v>58</v>
       </c>
       <c r="E61" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F61" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6091,10 +6121,10 @@
         <v>58</v>
       </c>
       <c r="E62" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F62" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6108,10 +6138,10 @@
         <v>58</v>
       </c>
       <c r="E63" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F63" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6125,10 +6155,10 @@
         <v>58</v>
       </c>
       <c r="E64" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F64" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6142,10 +6172,10 @@
         <v>58</v>
       </c>
       <c r="E65" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F65" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6159,10 +6189,10 @@
         <v>58</v>
       </c>
       <c r="E66" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F66" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6176,10 +6206,10 @@
         <v>58</v>
       </c>
       <c r="E67" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F67" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6193,10 +6223,10 @@
         <v>58</v>
       </c>
       <c r="E68" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F68" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6210,10 +6240,10 @@
         <v>58</v>
       </c>
       <c r="E69" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F69" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6227,10 +6257,10 @@
         <v>58</v>
       </c>
       <c r="E70" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F70" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6244,10 +6274,10 @@
         <v>58</v>
       </c>
       <c r="E71" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F71" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6261,10 +6291,10 @@
         <v>58</v>
       </c>
       <c r="E72" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F72" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6278,10 +6308,10 @@
         <v>58</v>
       </c>
       <c r="E73" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F73" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6295,10 +6325,10 @@
         <v>58</v>
       </c>
       <c r="E74" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F74" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6312,10 +6342,10 @@
         <v>58</v>
       </c>
       <c r="E75" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F75" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -6329,10 +6359,10 @@
         <v>58</v>
       </c>
       <c r="E76" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F76" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6346,14 +6376,14 @@
         <v>58</v>
       </c>
       <c r="E77" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F77" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" t="s">
+      <c r="A78" s="17" t="s">
         <v>208</v>
       </c>
       <c r="B78" s="11" t="s">
@@ -6363,10 +6393,10 @@
         <v>210</v>
       </c>
       <c r="E78" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F78" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6380,10 +6410,10 @@
         <v>210</v>
       </c>
       <c r="E79" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F79" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6397,10 +6427,10 @@
         <v>210</v>
       </c>
       <c r="E80" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F80" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6414,10 +6444,10 @@
         <v>210</v>
       </c>
       <c r="E81" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F81" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -6431,10 +6461,10 @@
         <v>210</v>
       </c>
       <c r="E82" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F82" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6448,10 +6478,10 @@
         <v>210</v>
       </c>
       <c r="E83" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F83" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6465,10 +6495,10 @@
         <v>210</v>
       </c>
       <c r="E84" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F84" t="s">
         <v>1016</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6482,10 +6512,10 @@
         <v>210</v>
       </c>
       <c r="E85" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F85" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6499,10 +6529,10 @@
         <v>210</v>
       </c>
       <c r="E86" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F86" t="s">
         <v>1016</v>
-      </c>
-      <c r="F86" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6516,10 +6546,10 @@
         <v>210</v>
       </c>
       <c r="E87" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F87" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6533,10 +6563,10 @@
         <v>210</v>
       </c>
       <c r="E88" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F88" t="s">
         <v>1016</v>
-      </c>
-      <c r="F88" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6550,10 +6580,10 @@
         <v>210</v>
       </c>
       <c r="E89" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F89" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6567,10 +6597,10 @@
         <v>210</v>
       </c>
       <c r="E90" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F90" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6584,10 +6614,10 @@
         <v>210</v>
       </c>
       <c r="E91" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F91" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6601,10 +6631,10 @@
         <v>210</v>
       </c>
       <c r="E92" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F92" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6618,10 +6648,10 @@
         <v>210</v>
       </c>
       <c r="E93" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F93" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6635,10 +6665,10 @@
         <v>210</v>
       </c>
       <c r="E94" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F94" t="s">
         <v>1016</v>
-      </c>
-      <c r="F94" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6652,10 +6682,10 @@
         <v>210</v>
       </c>
       <c r="E95" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F95" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6669,10 +6699,10 @@
         <v>210</v>
       </c>
       <c r="E96" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F96" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -6686,10 +6716,10 @@
         <v>210</v>
       </c>
       <c r="E97" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F97" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -6703,10 +6733,10 @@
         <v>210</v>
       </c>
       <c r="E98" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F98" t="s">
         <v>1016</v>
-      </c>
-      <c r="F98" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -6720,10 +6750,10 @@
         <v>210</v>
       </c>
       <c r="E99" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F99" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -6737,10 +6767,10 @@
         <v>210</v>
       </c>
       <c r="E100" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F100" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -6754,10 +6784,10 @@
         <v>210</v>
       </c>
       <c r="E101" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F101" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -6771,10 +6801,10 @@
         <v>210</v>
       </c>
       <c r="E102" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F102" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -6788,10 +6818,10 @@
         <v>210</v>
       </c>
       <c r="E103" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F103" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -6805,10 +6835,10 @@
         <v>210</v>
       </c>
       <c r="E104" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F104" t="s">
         <v>1016</v>
-      </c>
-      <c r="F104" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6822,10 +6852,10 @@
         <v>210</v>
       </c>
       <c r="E105" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F105" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -6839,10 +6869,10 @@
         <v>210</v>
       </c>
       <c r="E106" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F106" t="s">
         <v>1016</v>
-      </c>
-      <c r="F106" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6856,10 +6886,10 @@
         <v>210</v>
       </c>
       <c r="E107" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F107" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6873,10 +6903,10 @@
         <v>210</v>
       </c>
       <c r="E108" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F108" t="s">
         <v>1016</v>
-      </c>
-      <c r="F108" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6890,10 +6920,10 @@
         <v>210</v>
       </c>
       <c r="E109" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F109" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6907,10 +6937,10 @@
         <v>210</v>
       </c>
       <c r="E110" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F110" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6924,10 +6954,10 @@
         <v>210</v>
       </c>
       <c r="E111" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F111" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6941,10 +6971,10 @@
         <v>210</v>
       </c>
       <c r="E112" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F112" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6958,10 +6988,10 @@
         <v>210</v>
       </c>
       <c r="E113" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F113" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6975,10 +7005,10 @@
         <v>210</v>
       </c>
       <c r="E114" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F114" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6992,10 +7022,10 @@
         <v>210</v>
       </c>
       <c r="E115" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F115" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -7009,10 +7039,10 @@
         <v>210</v>
       </c>
       <c r="E116" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F116" t="s">
         <v>1016</v>
-      </c>
-      <c r="F116" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -7026,10 +7056,10 @@
         <v>210</v>
       </c>
       <c r="E117" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F117" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -7043,10 +7073,10 @@
         <v>210</v>
       </c>
       <c r="E118" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F118" t="s">
         <v>1016</v>
-      </c>
-      <c r="F118" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -7060,10 +7090,10 @@
         <v>210</v>
       </c>
       <c r="E119" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F119" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -7077,14 +7107,14 @@
         <v>210</v>
       </c>
       <c r="E120" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F120" t="s">
         <v>1016</v>
       </c>
-      <c r="F120" t="s">
-        <v>1017</v>
-      </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" t="s">
+      <c r="A121" s="17" t="s">
         <v>295</v>
       </c>
       <c r="B121" s="11" t="s">
@@ -7094,10 +7124,10 @@
         <v>210</v>
       </c>
       <c r="E121" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F121" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -7111,10 +7141,10 @@
         <v>210</v>
       </c>
       <c r="E122" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F122" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -7128,10 +7158,10 @@
         <v>210</v>
       </c>
       <c r="E123" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F123" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -7145,10 +7175,10 @@
         <v>210</v>
       </c>
       <c r="E124" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F124" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -7162,10 +7192,10 @@
         <v>210</v>
       </c>
       <c r="E125" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F125" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -7179,10 +7209,10 @@
         <v>210</v>
       </c>
       <c r="E126" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F126" t="s">
         <v>1016</v>
-      </c>
-      <c r="F126" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -7196,10 +7226,10 @@
         <v>210</v>
       </c>
       <c r="E127" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F127" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -7213,10 +7243,10 @@
         <v>210</v>
       </c>
       <c r="E128" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F128" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -7230,10 +7260,10 @@
         <v>210</v>
       </c>
       <c r="E129" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F129" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -7247,10 +7277,10 @@
         <v>210</v>
       </c>
       <c r="E130" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F130" t="s">
         <v>1016</v>
-      </c>
-      <c r="F130" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15.6">
@@ -7264,10 +7294,10 @@
         <v>210</v>
       </c>
       <c r="E131" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F131" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -7281,10 +7311,10 @@
         <v>210</v>
       </c>
       <c r="E132" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F132" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -7298,10 +7328,10 @@
         <v>210</v>
       </c>
       <c r="E133" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F133" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -7315,10 +7345,44 @@
         <v>210</v>
       </c>
       <c r="E134" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F134" t="s">
-        <v>1015</v>
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="15" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="15" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -7342,6 +7406,10 @@
     <hyperlink ref="A45" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
     <hyperlink ref="A51" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
     <hyperlink ref="A64" r:id="rId18" tooltip="mailto:fikpesu@pau.edu.ng" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="A135" r:id="rId19" xr:uid="{F546C537-5BDC-4D9E-9236-326BA2707E8C}"/>
+    <hyperlink ref="A136" r:id="rId20" xr:uid="{57CFD35D-7DEB-487F-B2F8-DFF4CC22F7F3}"/>
+    <hyperlink ref="A78" r:id="rId21" xr:uid="{D7775A2F-806A-48FC-BCBF-174CC21C648D}"/>
+    <hyperlink ref="A121" r:id="rId22" xr:uid="{8E899D2A-F70D-4922-BA81-F148CC2D9E42}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7351,8 +7419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L285"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F276" sqref="F276"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -10031,8 +10099,8 @@
       <c r="E99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F99" t="s">
-        <v>307</v>
+      <c r="F99" s="16" t="s">
+        <v>1022</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>364</v>
@@ -10128,7 +10196,7 @@
         <v>22</v>
       </c>
       <c r="F102" t="s">
-        <v>662</v>
+        <v>1018</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>368</v>
@@ -10142,10 +10210,10 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>664</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>452</v>
@@ -10157,7 +10225,7 @@
         <v>6</v>
       </c>
       <c r="F103" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>368</v>
@@ -10171,10 +10239,10 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>452</v>
@@ -10200,22 +10268,22 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D105" s="2">
+        <v>2</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" t="s">
         <v>669</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D105" s="2">
-        <v>2</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F105" t="s">
-        <v>670</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>368</v>
@@ -10226,10 +10294,10 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>452</v>
@@ -10255,10 +10323,10 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>452</v>
@@ -10284,10 +10352,10 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>676</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>452</v>
@@ -10313,10 +10381,10 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>678</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>452</v>
@@ -10342,10 +10410,10 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>452</v>
@@ -10371,10 +10439,10 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>581</v>
@@ -10400,10 +10468,10 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>452</v>
@@ -10429,10 +10497,10 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>686</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>452</v>
@@ -10458,10 +10526,10 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>452</v>
@@ -10487,10 +10555,10 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>689</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>690</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>452</v>
@@ -10502,7 +10570,7 @@
         <v>6</v>
       </c>
       <c r="F115" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>370</v>
@@ -10516,10 +10584,10 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>693</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>452</v>
@@ -10545,11 +10613,11 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>695</v>
-      </c>
       <c r="C117" s="2" t="s">
         <v>452</v>
       </c>
@@ -10560,7 +10628,7 @@
         <v>6</v>
       </c>
       <c r="F117" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>359</v>
@@ -10571,10 +10639,10 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>452</v>
@@ -10592,15 +10660,15 @@
         <v>327</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>700</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>452</v>
@@ -10612,7 +10680,7 @@
         <v>6</v>
       </c>
       <c r="F119" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>327</v>
@@ -10624,27 +10692,27 @@
         <v>338</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D120" s="2">
+        <v>2</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
         <v>703</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D120" s="2">
-        <v>2</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" t="s">
-        <v>704</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>327</v>
@@ -10656,15 +10724,15 @@
         <v>338</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>706</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>581</v>
@@ -10688,15 +10756,15 @@
         <v>338</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>708</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>452</v>
@@ -10720,27 +10788,27 @@
         <v>338</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D123" s="2">
+        <v>2</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
         <v>710</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D123" s="2">
-        <v>2</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F123" t="s">
-        <v>711</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>327</v>
@@ -10752,15 +10820,15 @@
         <v>338</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>713</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>452</v>
@@ -10784,15 +10852,15 @@
         <v>338</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>714</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>715</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>581</v>
@@ -10804,7 +10872,7 @@
         <v>43</v>
       </c>
       <c r="F125" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>327</v>
@@ -10816,15 +10884,15 @@
         <v>338</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>452</v>
@@ -10848,15 +10916,15 @@
         <v>338</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>452</v>
@@ -10880,15 +10948,15 @@
         <v>338</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>721</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>452</v>
@@ -10900,7 +10968,7 @@
         <v>6</v>
       </c>
       <c r="F128" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>330</v>
@@ -10912,15 +10980,15 @@
         <v>341</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>724</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>452</v>
@@ -10944,15 +11012,15 @@
         <v>341</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>725</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>726</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>452</v>
@@ -10976,15 +11044,15 @@
         <v>341</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>452</v>
@@ -11008,15 +11076,15 @@
         <v>341</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>730</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>452</v>
@@ -11040,15 +11108,15 @@
         <v>341</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>732</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>452</v>
@@ -11072,16 +11140,16 @@
         <v>341</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>734</v>
-      </c>
       <c r="C134" s="2" t="s">
         <v>452</v>
       </c>
@@ -11091,8 +11159,8 @@
       <c r="E134" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F134" t="s">
-        <v>307</v>
+      <c r="F134" s="17" t="s">
+        <v>1020</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>330</v>
@@ -11104,15 +11172,15 @@
         <v>341</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>735</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>736</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>452</v>
@@ -11136,15 +11204,15 @@
         <v>341</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>738</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>452</v>
@@ -11162,41 +11230,41 @@
         <v>332</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="C137" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D137" s="2">
+        <v>2</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137" t="s">
         <v>740</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D137" s="2">
-        <v>2</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F137" t="s">
-        <v>741</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>332</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>742</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>743</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>452</v>
@@ -11214,15 +11282,15 @@
         <v>332</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>744</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>745</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>581</v>
@@ -11234,21 +11302,21 @@
         <v>43</v>
       </c>
       <c r="F139" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>332</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>747</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>748</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>452</v>
@@ -11266,15 +11334,15 @@
         <v>332</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>452</v>
@@ -11292,15 +11360,15 @@
         <v>332</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>751</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>752</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>452</v>
@@ -11318,15 +11386,15 @@
         <v>332</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>753</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>754</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>452</v>
@@ -11344,15 +11412,15 @@
         <v>332</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>756</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>452</v>
@@ -11370,15 +11438,15 @@
         <v>332</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>452</v>
@@ -11396,15 +11464,15 @@
         <v>334</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>452</v>
@@ -11422,15 +11490,15 @@
         <v>334</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>761</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>762</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>452</v>
@@ -11448,15 +11516,15 @@
         <v>334</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>763</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>764</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>452</v>
@@ -11474,15 +11542,15 @@
         <v>334</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>766</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>452</v>
@@ -11500,15 +11568,15 @@
         <v>334</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>767</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>768</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>581</v>
@@ -11526,15 +11594,15 @@
         <v>334</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>581</v>
@@ -11552,15 +11620,15 @@
         <v>336</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>770</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>771</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>452</v>
@@ -11578,15 +11646,15 @@
         <v>336</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>772</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>773</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>452</v>
@@ -11609,10 +11677,10 @@
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>774</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>775</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>452</v>
@@ -11635,10 +11703,10 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>452</v>
@@ -11661,10 +11729,10 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>777</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>778</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>452</v>
@@ -11687,10 +11755,10 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>780</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>452</v>
@@ -11713,10 +11781,10 @@
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>781</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>782</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>452</v>
@@ -11739,10 +11807,10 @@
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>784</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>452</v>
@@ -11765,10 +11833,10 @@
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>785</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>786</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>452</v>
@@ -11791,10 +11859,10 @@
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>452</v>
@@ -11817,10 +11885,10 @@
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>452</v>
@@ -11843,10 +11911,10 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>789</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>790</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>452</v>
@@ -11869,10 +11937,10 @@
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>791</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>792</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>452</v>
@@ -11895,10 +11963,10 @@
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>793</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>794</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>452</v>
@@ -11921,10 +11989,10 @@
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>796</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>452</v>
@@ -11947,22 +12015,22 @@
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="C167" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D167" s="2">
+        <v>2</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F167" t="s">
         <v>798</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D167" s="2">
-        <v>2</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F167" t="s">
-        <v>799</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>345</v>
@@ -11973,10 +12041,10 @@
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>452</v>
@@ -11999,10 +12067,10 @@
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>801</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>802</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>452</v>
@@ -12025,10 +12093,10 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>804</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>581</v>
@@ -12051,10 +12119,10 @@
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>805</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>806</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>452</v>
@@ -12077,10 +12145,10 @@
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>807</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>808</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>452</v>
@@ -12103,10 +12171,10 @@
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>809</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>810</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>452</v>
@@ -12129,7 +12197,7 @@
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>467</v>
@@ -12164,10 +12232,10 @@
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>813</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>452</v>
@@ -12190,10 +12258,10 @@
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>452</v>
@@ -12216,10 +12284,10 @@
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>816</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>817</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>452</v>
@@ -12242,22 +12310,22 @@
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="C178" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D178" s="2">
+        <v>2</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F178" t="s">
         <v>819</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D178" s="2">
-        <v>2</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F178" t="s">
-        <v>820</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>374</v>
@@ -12268,10 +12336,10 @@
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>821</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>822</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>452</v>
@@ -12294,7 +12362,7 @@
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>532</v>
@@ -12329,7 +12397,7 @@
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>549</v>
@@ -12355,7 +12423,7 @@
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>477</v>
@@ -12369,8 +12437,8 @@
       <c r="E182" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F182" t="s">
-        <v>307</v>
+      <c r="F182" s="17" t="s">
+        <v>1020</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>377</v>
@@ -12381,10 +12449,10 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>827</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>452</v>
@@ -12407,10 +12475,10 @@
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>828</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>829</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>452</v>
@@ -12433,10 +12501,10 @@
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>830</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>831</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>452</v>
@@ -12459,10 +12527,10 @@
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>832</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>833</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>452</v>
@@ -12485,7 +12553,7 @@
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>552</v>
@@ -12500,7 +12568,7 @@
         <v>6</v>
       </c>
       <c r="F187" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>377</v>
@@ -12511,10 +12579,10 @@
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>836</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>837</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>452</v>
@@ -12537,22 +12605,22 @@
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="C189" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D189" s="2">
+        <v>2</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F189" t="s">
         <v>839</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D189" s="2">
-        <v>2</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F189" t="s">
-        <v>840</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>379</v>
@@ -12563,7 +12631,7 @@
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>571</v>
@@ -12589,10 +12657,10 @@
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>842</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>843</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>452</v>
@@ -12615,10 +12683,10 @@
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>845</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>452</v>
@@ -12641,10 +12709,10 @@
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>846</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>847</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>452</v>
@@ -12667,10 +12735,10 @@
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>848</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>849</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>452</v>
@@ -12693,10 +12761,10 @@
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>850</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>851</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>452</v>
@@ -12719,10 +12787,10 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>852</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>853</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>452</v>
@@ -12745,10 +12813,10 @@
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>854</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>855</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>452</v>
@@ -12771,10 +12839,10 @@
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>856</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>857</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>452</v>
@@ -12797,10 +12865,10 @@
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>858</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>859</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>452</v>
@@ -12823,10 +12891,10 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>860</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>861</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>452</v>
@@ -12849,10 +12917,10 @@
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>862</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>863</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>452</v>
@@ -12875,10 +12943,10 @@
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>864</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>865</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>452</v>
@@ -12901,10 +12969,10 @@
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>866</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>867</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>452</v>
@@ -12927,10 +12995,10 @@
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>868</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>869</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>452</v>
@@ -12953,10 +13021,10 @@
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>870</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>871</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>452</v>
@@ -12979,10 +13047,10 @@
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>872</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>873</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>452</v>
@@ -13005,10 +13073,10 @@
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>874</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>875</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>452</v>
@@ -13031,10 +13099,10 @@
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>876</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>877</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>452</v>
@@ -13057,10 +13125,10 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>878</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>879</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>452</v>
@@ -13083,22 +13151,22 @@
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D210" s="8">
+        <v>2</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F210" t="s">
         <v>880</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D210" s="8">
-        <v>2</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F210" t="s">
-        <v>881</v>
       </c>
       <c r="G210" s="2" t="s">
         <v>383</v>
@@ -13109,10 +13177,10 @@
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>452</v>
@@ -13135,10 +13203,10 @@
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>883</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>884</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>452</v>
@@ -13161,10 +13229,10 @@
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>885</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>886</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>452</v>
@@ -13187,7 +13255,7 @@
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>477</v>
@@ -13201,8 +13269,8 @@
       <c r="E214" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F214" t="s">
-        <v>307</v>
+      <c r="F214" s="17" t="s">
+        <v>1020</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>386</v>
@@ -13213,10 +13281,10 @@
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>888</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>889</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>452</v>
@@ -13239,10 +13307,10 @@
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>890</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>891</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>452</v>
@@ -13265,22 +13333,22 @@
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="C217" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D217" s="2">
+        <v>2</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F217" t="s">
         <v>893</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D217" s="2">
-        <v>2</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F217" t="s">
-        <v>894</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>386</v>
@@ -13291,10 +13359,10 @@
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>895</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>896</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>452</v>
@@ -13317,7 +13385,7 @@
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>552</v>
@@ -13332,7 +13400,7 @@
         <v>6</v>
       </c>
       <c r="F219" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G219" s="2" t="s">
         <v>386</v>
@@ -13343,22 +13411,22 @@
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D220" s="2">
+        <v>2</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F220" t="s">
         <v>898</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D220" s="2">
-        <v>2</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F220" t="s">
-        <v>899</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>388</v>
@@ -13369,7 +13437,7 @@
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>571</v>
@@ -13395,10 +13463,10 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>901</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>902</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>452</v>
@@ -13421,10 +13489,10 @@
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>903</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>904</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>452</v>
@@ -13447,10 +13515,10 @@
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>905</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>906</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>452</v>
@@ -13473,10 +13541,10 @@
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>907</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>908</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>452</v>
@@ -13499,10 +13567,10 @@
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>909</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>910</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>452</v>
@@ -13525,10 +13593,10 @@
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>911</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>912</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>452</v>
@@ -13551,10 +13619,10 @@
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>913</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>914</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>452</v>
@@ -13577,10 +13645,10 @@
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>915</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>916</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>452</v>
@@ -13603,10 +13671,10 @@
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>917</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>918</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>452</v>
@@ -13629,10 +13697,10 @@
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>919</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>920</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>452</v>
@@ -13655,10 +13723,10 @@
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>921</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>922</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>452</v>
@@ -13681,10 +13749,10 @@
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>923</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>924</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>452</v>
@@ -13707,10 +13775,10 @@
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>452</v>
@@ -13733,22 +13801,22 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="C235" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D235" s="2">
+        <v>2</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F235" t="s">
         <v>927</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D235" s="2">
-        <v>2</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F235" t="s">
-        <v>928</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>392</v>
@@ -13759,10 +13827,10 @@
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>452</v>
@@ -13785,10 +13853,10 @@
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>930</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>931</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>452</v>
@@ -13811,10 +13879,10 @@
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>932</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>933</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>452</v>
@@ -13837,7 +13905,7 @@
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>549</v>
@@ -13863,7 +13931,7 @@
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>477</v>
@@ -13877,8 +13945,8 @@
       <c r="E240" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F240" t="s">
-        <v>307</v>
+      <c r="F240" s="17" t="s">
+        <v>1022</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>395</v>
@@ -13889,10 +13957,10 @@
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>936</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>937</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>452</v>
@@ -13915,10 +13983,10 @@
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>938</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>939</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>452</v>
@@ -13941,10 +14009,10 @@
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>940</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>941</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>452</v>
@@ -13967,7 +14035,7 @@
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>552</v>
@@ -13982,7 +14050,7 @@
         <v>6</v>
       </c>
       <c r="F244" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G244" s="2" t="s">
         <v>395</v>
@@ -13993,10 +14061,10 @@
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>452</v>
@@ -14008,7 +14076,7 @@
         <v>6</v>
       </c>
       <c r="F245" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G245" s="2" t="s">
         <v>397</v>
@@ -14019,7 +14087,7 @@
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>571</v>
@@ -14045,10 +14113,10 @@
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>945</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>946</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>452</v>
@@ -14071,10 +14139,10 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>947</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>948</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>452</v>
@@ -14097,10 +14165,10 @@
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>949</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>950</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>452</v>
@@ -14112,7 +14180,7 @@
         <v>6</v>
       </c>
       <c r="F249" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G249" s="2" t="s">
         <v>397</v>
@@ -14123,10 +14191,10 @@
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>952</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>953</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>452</v>
@@ -14149,10 +14217,10 @@
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>954</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>955</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>452</v>
@@ -14175,10 +14243,10 @@
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>452</v>
@@ -14201,10 +14269,10 @@
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>957</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>958</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>452</v>
@@ -14227,10 +14295,10 @@
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>959</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>960</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>452</v>
@@ -14253,10 +14321,10 @@
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>452</v>
@@ -14279,10 +14347,10 @@
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>962</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>963</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>452</v>
@@ -14305,10 +14373,10 @@
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>964</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>965</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>452</v>
@@ -14331,10 +14399,10 @@
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>966</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>967</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>452</v>
@@ -14357,10 +14425,10 @@
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>968</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>969</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>452</v>
@@ -14383,10 +14451,10 @@
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>452</v>
@@ -14409,10 +14477,10 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>971</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>972</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>452</v>
@@ -14435,10 +14503,10 @@
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>973</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>974</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>452</v>
@@ -14450,7 +14518,7 @@
         <v>6</v>
       </c>
       <c r="F262" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>426</v>
@@ -14461,10 +14529,10 @@
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>976</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>977</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>452</v>
@@ -14487,7 +14555,7 @@
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>549</v>
@@ -14513,7 +14581,7 @@
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>552</v>
@@ -14539,7 +14607,7 @@
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>477</v>
@@ -14553,8 +14621,8 @@
       <c r="E266" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F266" t="s">
-        <v>307</v>
+      <c r="F266" s="17" t="s">
+        <v>1022</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>429</v>
@@ -14565,10 +14633,10 @@
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>452</v>
@@ -14591,10 +14659,10 @@
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>982</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>983</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>452</v>
@@ -14617,10 +14685,10 @@
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>984</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>985</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>452</v>
@@ -14643,10 +14711,10 @@
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>986</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>987</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>452</v>
@@ -14658,7 +14726,7 @@
         <v>6</v>
       </c>
       <c r="F270" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>429</v>
@@ -14669,10 +14737,10 @@
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>452</v>
@@ -14684,7 +14752,7 @@
         <v>6</v>
       </c>
       <c r="F271" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>431</v>
@@ -14695,7 +14763,7 @@
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>571</v>
@@ -14721,10 +14789,10 @@
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>990</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>991</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>452</v>
@@ -14736,7 +14804,7 @@
         <v>6</v>
       </c>
       <c r="F273" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>431</v>
@@ -14747,10 +14815,10 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>993</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>452</v>
@@ -14773,10 +14841,10 @@
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>995</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>452</v>
@@ -14799,10 +14867,10 @@
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>996</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>997</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>452</v>
@@ -14825,10 +14893,10 @@
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>452</v>
@@ -14851,10 +14919,10 @@
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>999</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>1000</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>452</v>
@@ -14877,10 +14945,10 @@
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>452</v>
@@ -14903,10 +14971,10 @@
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>1002</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>1003</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>452</v>
@@ -14929,10 +14997,10 @@
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>1004</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>1005</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>452</v>
@@ -14955,10 +15023,10 @@
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>1006</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>1007</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>452</v>
@@ -14981,10 +15049,10 @@
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>1008</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>1009</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>452</v>
@@ -15007,10 +15075,10 @@
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>1010</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>1011</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>452</v>
@@ -15033,10 +15101,10 @@
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>1012</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>1013</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>452</v>
@@ -15073,29 +15141,29 @@
     <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
     <hyperlink ref="F49" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
     <hyperlink ref="F71" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="F99" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="F134" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="F182" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="F214" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="F240" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
-    <hyperlink ref="F266" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
-    <hyperlink ref="F17" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
-    <hyperlink ref="F21" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
-    <hyperlink ref="F60" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
-    <hyperlink ref="F84" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
-    <hyperlink ref="F104" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
-    <hyperlink ref="F94" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
-    <hyperlink ref="F109" r:id="rId27" tooltip="mailto:oiheanetu@pau.edu.ng" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
-    <hyperlink ref="F114" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
-    <hyperlink ref="F147" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
-    <hyperlink ref="F168" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
-    <hyperlink ref="F194" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
-    <hyperlink ref="F215" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
-    <hyperlink ref="F218" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
-    <hyperlink ref="F223" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
-    <hyperlink ref="F212" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
-    <hyperlink ref="F171" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
-    <hyperlink ref="F158" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="F134" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="F182" r:id="rId16" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="F214" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="F240" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="F266" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="F17" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="F21" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="F60" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="F84" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="F104" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="F94" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="F109" r:id="rId26" tooltip="mailto:oiheanetu@pau.edu.ng" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="F114" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="F147" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="F168" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="F194" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="F215" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="F218" r:id="rId32" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="F223" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="F212" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="F171" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="F158" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="F99" r:id="rId37" xr:uid="{F5EF139F-895F-4A2C-BCF1-E3BA547B8D87}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/NEWLY updated Timetable_Input_Template.xlsx
+++ b/data/NEWLY updated Timetable_Input_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamil\Downloads\PAU_Timetable_Scheduler\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B1C671-1AA8-4850-8A6F-B8E91BFFAAB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A17A3FA-A023-40D5-8970-FA136F5D2B82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6804" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6804" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classrooms" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="1029">
   <si>
     <t>Room Name</t>
   </si>
@@ -3100,7 +3100,22 @@
     <t>uchegbuna@gmail.com</t>
   </si>
   <si>
-    <t>Thu</t>
+    <t>9:00-14:00</t>
+  </si>
+  <si>
+    <t>9:00-14:01</t>
+  </si>
+  <si>
+    <t>9:00-14:02</t>
+  </si>
+  <si>
+    <t>9:00-14:03</t>
+  </si>
+  <si>
+    <t>9:00-14:04</t>
+  </si>
+  <si>
+    <t>Tue, Wed, Thu</t>
   </si>
 </sst>
 </file>
@@ -5051,8 +5066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6396,7 +6411,7 @@
         <v>1015</v>
       </c>
       <c r="F78" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6413,7 +6428,7 @@
         <v>1017</v>
       </c>
       <c r="F79" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6430,7 +6445,7 @@
         <v>1015</v>
       </c>
       <c r="F80" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6447,7 +6462,7 @@
         <v>1017</v>
       </c>
       <c r="F81" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -6464,7 +6479,7 @@
         <v>1015</v>
       </c>
       <c r="F82" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6481,7 +6496,7 @@
         <v>1017</v>
       </c>
       <c r="F83" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6583,7 +6598,7 @@
         <v>1017</v>
       </c>
       <c r="F89" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6600,7 +6615,7 @@
         <v>1015</v>
       </c>
       <c r="F90" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6617,7 +6632,7 @@
         <v>1017</v>
       </c>
       <c r="F91" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6634,7 +6649,7 @@
         <v>1015</v>
       </c>
       <c r="F92" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6651,7 +6666,7 @@
         <v>1017</v>
       </c>
       <c r="F93" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6702,7 +6717,7 @@
         <v>1015</v>
       </c>
       <c r="F96" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -6719,7 +6734,7 @@
         <v>1017</v>
       </c>
       <c r="F97" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -6770,7 +6785,7 @@
         <v>1015</v>
       </c>
       <c r="F100" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -6787,7 +6802,7 @@
         <v>1017</v>
       </c>
       <c r="F101" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -6804,7 +6819,7 @@
         <v>1015</v>
       </c>
       <c r="F102" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -6821,7 +6836,7 @@
         <v>1017</v>
       </c>
       <c r="F103" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -6940,7 +6955,7 @@
         <v>1015</v>
       </c>
       <c r="F110" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6957,7 +6972,7 @@
         <v>1017</v>
       </c>
       <c r="F111" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6974,7 +6989,7 @@
         <v>1015</v>
       </c>
       <c r="F112" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6991,7 +7006,7 @@
         <v>1017</v>
       </c>
       <c r="F113" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -7008,7 +7023,7 @@
         <v>1015</v>
       </c>
       <c r="F114" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -7025,7 +7040,7 @@
         <v>1017</v>
       </c>
       <c r="F115" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -7127,7 +7142,7 @@
         <v>1017</v>
       </c>
       <c r="F121" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -7144,7 +7159,7 @@
         <v>1015</v>
       </c>
       <c r="F122" t="s">
-        <v>1014</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -7161,7 +7176,7 @@
         <v>1017</v>
       </c>
       <c r="F123" t="s">
-        <v>1014</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -7178,7 +7193,7 @@
         <v>1015</v>
       </c>
       <c r="F124" t="s">
-        <v>1014</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -7195,7 +7210,7 @@
         <v>1017</v>
       </c>
       <c r="F125" t="s">
-        <v>1014</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -7229,7 +7244,7 @@
         <v>1017</v>
       </c>
       <c r="F127" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -7263,7 +7278,7 @@
         <v>1017</v>
       </c>
       <c r="F129" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -7297,7 +7312,7 @@
         <v>1017</v>
       </c>
       <c r="F131" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -7314,7 +7329,7 @@
         <v>1015</v>
       </c>
       <c r="F132" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -7331,7 +7346,7 @@
         <v>1017</v>
       </c>
       <c r="F133" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -7348,7 +7363,7 @@
         <v>1015</v>
       </c>
       <c r="F134" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -7379,7 +7394,7 @@
         <v>210</v>
       </c>
       <c r="E136" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="F136" t="s">
         <v>1013</v>
@@ -7419,7 +7434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+    <sheetView topLeftCell="A95" workbookViewId="0">
       <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
